--- a/doc/import-user/Templat_เพิ่มข้อมูลผู้ใช้.xlsx
+++ b/doc/import-user/Templat_เพิ่มข้อมูลผู้ใช้.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="118">
   <si>
     <t>phoonsawat_jo@hotmail.com</t>
   </si>
@@ -116,9 +117,6 @@
     <t>สังกัด</t>
   </si>
   <si>
-    <t>สำนักงานป้องกันควบคุมโรคที่ 6 ชลบุรี</t>
-  </si>
-  <si>
     <t>0982256615</t>
   </si>
   <si>
@@ -146,10 +144,241 @@
     <t>somchai</t>
   </si>
   <si>
-    <t>wichan</t>
-  </si>
-  <si>
     <t>waminrat</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>สำนักงานป้องกันควบคุมโรคที่ 6 จังหวัดชลบุรี</t>
+  </si>
+  <si>
+    <t>กลุ่มบริหารทั่วไป</t>
+  </si>
+  <si>
+    <t>กลุ่มพัฒนาวิชาการ</t>
+  </si>
+  <si>
+    <t>กลุ่มพัฒนาภาคีเครือข่าย</t>
+  </si>
+  <si>
+    <t>กลุ่มสื่อสาร</t>
+  </si>
+  <si>
+    <t>กลุ่มระบาดวิทยา</t>
+  </si>
+  <si>
+    <t>กลุ่มแผนงานและประเมินผล</t>
+  </si>
+  <si>
+    <t>กลุ่มพัฒนาองค์กร</t>
+  </si>
+  <si>
+    <t>กลุ่มอำนวยการ</t>
+  </si>
+  <si>
+    <t>ศตม 6.5 จันทบุรี</t>
+  </si>
+  <si>
+    <t>ศตม.6.4 ตราด</t>
+  </si>
+  <si>
+    <t>ศตม.6.1 ศรีราชา</t>
+  </si>
+  <si>
+    <t>ศตม.6.3 ระยอง</t>
+  </si>
+  <si>
+    <t>ศตม.6.2 สระแก้ว</t>
+  </si>
+  <si>
+    <t>ด่านท่าเรือศรีราชา</t>
+  </si>
+  <si>
+    <t>ด่านท่าเรือแหลมฉบัง</t>
+  </si>
+  <si>
+    <t>ด่านท่าเรือเกาะสีชัง</t>
+  </si>
+  <si>
+    <t>ด่านท่าเรือมาบตาพุด</t>
+  </si>
+  <si>
+    <t>ด่านท่าอากาศยานอู่ตะเภา</t>
+  </si>
+  <si>
+    <t>ด่านอรัญประเทศ</t>
+  </si>
+  <si>
+    <t>ด่านคลองใหญ่</t>
+  </si>
+  <si>
+    <t>ด่านบ้านแหลม</t>
+  </si>
+  <si>
+    <t>ด่านบ้านผักกาด</t>
+  </si>
+  <si>
+    <t>หน่วยกามโรคที่ 3.1 อ.บางละมุง</t>
+  </si>
+  <si>
+    <t>วัณโรค</t>
+  </si>
+  <si>
+    <t>กลุ่มห้องปฏิบัติการ</t>
+  </si>
+  <si>
+    <t>กลุ่มงานสถาปัตยกรรมข้อมูล</t>
+  </si>
+  <si>
+    <t>กลุ่มปฏิบัติการ</t>
+  </si>
+  <si>
+    <t>พัฒนาภาคีเครือข่าย</t>
+  </si>
+  <si>
+    <t>กลุ่มปฏิบัติการควบคุมโรคและตอบโต้ภาวะฉุกเฉินทางด้านสาธารณสุข</t>
+  </si>
+  <si>
+    <t>กลุ่มสื่อสารความเสี่ยงและพัฒนาพฤติกรรมสุขภาพ</t>
+  </si>
+  <si>
+    <t>กลุ่มระบาดวิทยาและข่าวกรอง</t>
+  </si>
+  <si>
+    <t>แพทย์หญิง</t>
+  </si>
+  <si>
+    <t>นักวิชาการสาธารณสุข</t>
+  </si>
+  <si>
+    <t>พยาบาลวิชาชิพ</t>
+  </si>
+  <si>
+    <t>เภสัชกร</t>
+  </si>
+  <si>
+    <t>นักสังคมสงเคราะห์</t>
+  </si>
+  <si>
+    <t>นักวิเคราะห์นโยบายและแผน</t>
+  </si>
+  <si>
+    <t>นักเทคนิคการแพทย์</t>
+  </si>
+  <si>
+    <t>เจ้าพนักงานวิทย์ฯการแพทย์</t>
+  </si>
+  <si>
+    <t>เจ้าพนักงานเภสัชกรรม</t>
+  </si>
+  <si>
+    <t>นักวิชาการการเงินและบัญชี</t>
+  </si>
+  <si>
+    <t>นักจัดการงานทั่วไป</t>
+  </si>
+  <si>
+    <t>เจ้าพนักงานการเงินและบัญชี</t>
+  </si>
+  <si>
+    <t>นักวิชาการพัสดุ</t>
+  </si>
+  <si>
+    <t>เจ้าพนักงานพัสดุ</t>
+  </si>
+  <si>
+    <t>เจ้าพนักงานธุรการ</t>
+  </si>
+  <si>
+    <t>เจ้าพนักงานสาธารณสุข</t>
+  </si>
+  <si>
+    <t>นักรังสีการแพทย์</t>
+  </si>
+  <si>
+    <t>นักทรัพยากรบุคคล</t>
+  </si>
+  <si>
+    <t>นักวิชาการเผยแพร่</t>
+  </si>
+  <si>
+    <t>นักประชาสัมพันธ์</t>
+  </si>
+  <si>
+    <t>นิติกร</t>
+  </si>
+  <si>
+    <t>เจ้าพนักงานคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>นักวิชาการคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>พนักงานปฏิบัติการพาหะส2</t>
+  </si>
+  <si>
+    <t>พนักงานปฏิบัติการชันสูตรส2</t>
+  </si>
+  <si>
+    <t>พนักงานพิมพ์ระดับส3</t>
+  </si>
+  <si>
+    <t>พนักงานขับรถยนต์ส2</t>
+  </si>
+  <si>
+    <t>พนักงานทั่วไประดับส2</t>
+  </si>
+  <si>
+    <t>พนักงานทั่วไป1</t>
+  </si>
+  <si>
+    <t>ผู้ข่วยเหลือคนไข้</t>
+  </si>
+  <si>
+    <t>แม่บ้านระดับ บ2</t>
+  </si>
+  <si>
+    <t>พนักงานธุรการระดับ ส2</t>
+  </si>
+  <si>
+    <t>พนักงานธุรการระดับ ส3</t>
+  </si>
+  <si>
+    <t>พนักงานสถานที่ระดับ บ2</t>
+  </si>
+  <si>
+    <t>พนักงานเยี่ยมบ้านระดับ ส2</t>
+  </si>
+  <si>
+    <t>ช่างเครื่องยนต์ระดับ ช2</t>
+  </si>
+  <si>
+    <t>นักกีฏวิทยา</t>
+  </si>
+  <si>
+    <t>นักวิทยาศาสตร์การแพทย์</t>
+  </si>
+  <si>
+    <t>นักวิชาการสาธารณสุขเชี่ยวชาญ</t>
+  </si>
+  <si>
+    <t>นายแพทย์</t>
+  </si>
+  <si>
+    <t>นักวิชาการสาธารณสุขปฏิบัติการ</t>
+  </si>
+  <si>
+    <t>แพทย์หญิงชำนาญการพิเศษ</t>
+  </si>
+  <si>
+    <t>นักวิชาการสาธารณสุขชำนาญการพิเศษ</t>
+  </si>
+  <si>
+    <t>นักวิชาการเงินและบัญชีชำนาญการ</t>
+  </si>
+  <si>
+    <t>นักวิชาการสาธารณสุขชำนาญการ</t>
   </si>
 </sst>
 </file>
@@ -222,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -241,6 +470,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -522,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -582,7 +812,7 @@
       <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
@@ -601,19 +831,19 @@
         <v>27</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
@@ -621,7 +851,7 @@
       <c r="L2" s="3">
         <v>1</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
@@ -640,19 +870,19 @@
         <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -660,7 +890,7 @@
       <c r="L3" s="3">
         <v>1</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
@@ -679,13 +909,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>40</v>
@@ -699,7 +929,7 @@
       <c r="L4" s="3">
         <v>1</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
@@ -718,19 +948,19 @@
         <v>28</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -738,7 +968,7 @@
       <c r="L5" s="3">
         <v>1</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
@@ -753,7 +983,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
@@ -768,7 +998,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="2"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
@@ -783,9 +1013,134 @@
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="12"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>$F$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="H1" r:id="rId1" display="phoonsawat_jo@hotmail.com"/>
     <hyperlink ref="H3" r:id="rId2"/>
@@ -793,5 +1148,377 @@
     <hyperlink ref="H5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$1:$B$48</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>